--- a/docs/StructureDefinition-medicationrequest-forHeadOrNeckCancer.xlsx
+++ b/docs/StructureDefinition-medicationrequest-forHeadOrNeckCancer.xlsx
@@ -251,7 +251,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>PRESCRIPTION @HEAD AND/OR NECK CANCER 52-121</t>
+    <t>PENDING OUTPATIENT ORDERS @HEAD AND/OR NECK CANCER 52.41-110</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="50.86328125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="69.25" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
